--- a/ingles_502.xlsx
+++ b/ingles_502.xlsx
@@ -11,18 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>MARCELO LIMA BEVILAQUA</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <r>
       <rPr>
@@ -87,6 +76,116 @@
         <sz val="10.0"/>
       </rPr>
       <t>DANIEL HONORATO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>THAIS RODRIGUES OLIVEIRA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>EDUARDO RECHDEN OLIVEIRA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>FLÁVIA FERNANDES MONTEIRO DANTAS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>LIVIA MERCES MARIANO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>ELIANE FERREIRA SERAFIM MILITÃO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>AMANDA PINTO ALBUQUERQUE PIRES</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>LILIANE DA SILVA SOUZA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>SARA PRISCILA GUSMÃO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>EDUARDO MOREIRA DA CUNHA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>MARIA MADALENA MENDES FONTES</t>
     </r>
   </si>
   <si>
@@ -97,7 +196,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="###0;###0"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -113,11 +215,6 @@
       <b/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -158,15 +255,15 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -384,13 +481,12 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.0"/>
-    <col customWidth="1" min="2" max="2" width="41.13"/>
+    <col customWidth="1" min="2" max="2" width="29.63"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1">
-        <v>62.0</v>
+        <v>63.0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -398,7 +494,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>63.0</v>
+        <v>64.0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -406,7 +502,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>64.0</v>
+        <v>65.0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -414,7 +510,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>65.0</v>
+        <v>66.0</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -422,7 +518,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>66.0</v>
+        <v>67.0</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -430,7 +526,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>67.0</v>
+        <v>68.0</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -438,16 +534,88 @@
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>68.0</v>
+        <v>69.0</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="1">
+        <v>70.0</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>71.0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>72.0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>73.0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>74.0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>75.0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>76.0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>77.0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>78.0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/ingles_502.xlsx
+++ b/ingles_502.xlsx
@@ -11,185 +11,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>Flávia Fernandes Monteiro Dantas</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>Livia Merces Mariano</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
         <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>NÍVIA CARVALHO DE OLIVEIRA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Eliane Ferreira Serafim Militão</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
         <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>JARINA CAMPOS DA SILVA CONSTANTINO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Amanda Pinto Albuquerque Pires</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
         <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>KELLY GRAZIELE SOUZA DE MATTOS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Liliane Da Silva Souza</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
         <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>GRAZIELE CRISTINA DA SILVA SANTOS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>FABIANA DAS DORES DE ALMEIDA DELGADO FREIRE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>DANIEL HONORATO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>THAIS RODRIGUES OLIVEIRA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>EDUARDO RECHDEN OLIVEIRA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>FLÁVIA FERNANDES MONTEIRO DANTAS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>LIVIA MERCES MARIANO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>ELIANE FERREIRA SERAFIM MILITÃO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>AMANDA PINTO ALBUQUERQUE PIRES</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>LILIANE DA SILVA SOUZA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>SARA PRISCILA GUSMÃO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>EDUARDO MOREIRA DA CUNHA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>MARIA MADALENA MENDES FONTES</t>
-    </r>
-  </si>
-  <si>
-    <t>FIM - INGLÊS</t>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Sara Priscila Gusmão</t>
+    </r>
+  </si>
+  <si>
+    <t>FIM - LINGUA INGLESA</t>
   </si>
 </sst>
 </file>
@@ -199,7 +83,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###0;###0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -207,17 +91,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <color rgb="FF000009"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -251,19 +142,28 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,141 +381,77 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="29.63"/>
+    <col customWidth="1" min="2" max="2" width="33.38"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1">
-        <v>63.0</v>
+        <v>71.0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>64.0</v>
+        <v>72.0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
-        <v>65.0</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="4">
+        <v>73.0</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
-        <v>66.0</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="4">
+        <v>74.0</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1">
-        <v>67.0</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="4">
+        <v>75.0</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1">
-        <v>68.0</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="4">
+        <v>76.0</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1">
-        <v>69.0</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>70.0</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>71.0</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>72.0</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>73.0</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>74.0</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>75.0</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>76.0</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>77.0</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>78.0</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/ingles_502.xlsx
+++ b/ingles_502.xlsx
@@ -1,12 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="12735"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Página1" sheetId="1" r:id="rId4"/>
+    <sheet name="Table 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -15,9 +18,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>Flávia Fernandes Monteiro Dantas</t>
     </r>
@@ -25,9 +28,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>Livia Merces Mariano</t>
     </r>
@@ -35,9 +38,10 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000009"/>
         <rFont val="Calibri"/>
-        <color rgb="FF000009"/>
-        <sz val="11.0"/>
+        <family val="2"/>
       </rPr>
       <t>Eliane Ferreira Serafim Militão</t>
     </r>
@@ -45,9 +49,10 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000009"/>
         <rFont val="Calibri"/>
-        <color rgb="FF000009"/>
-        <sz val="11.0"/>
+        <family val="2"/>
       </rPr>
       <t>Amanda Pinto Albuquerque Pires</t>
     </r>
@@ -55,9 +60,10 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000009"/>
         <rFont val="Calibri"/>
-        <color rgb="FF000009"/>
-        <sz val="11.0"/>
+        <family val="2"/>
       </rPr>
       <t>Liliane Da Silva Souza</t>
     </r>
@@ -65,53 +71,56 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000009"/>
         <rFont val="Calibri"/>
-        <color rgb="FF000009"/>
-        <sz val="11.0"/>
+        <family val="2"/>
       </rPr>
       <t>Sara Priscila Gusmão</t>
     </r>
   </si>
   <si>
-    <t>FIM - LINGUA INGLESA</t>
+    <t>Fim Inglês</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###0;###0"/>
   </numFmts>
   <fonts count="6">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
     </font>
     <font>
-      <color theme="1"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF000009"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FF000009"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <color theme="1"/>
+      <sz val="10"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -119,15 +128,43 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="7">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -137,100 +174,206 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Escritório">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -239,222 +382,253 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="33.38"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="58.5" customWidth="1"/>
+    <col min="3" max="5" width="1.1640625" customWidth="1"/>
+    <col min="6" max="6" width="2.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1">
-        <v>71.0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:3" ht="48.75" customHeight="1">
+      <c r="A1" s="2">
+        <v>71</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
+      <c r="C1" s="4"/>
     </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>72.0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:3" ht="44.25" customHeight="1">
+      <c r="A2" s="2">
+        <v>72</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="C2" s="4"/>
     </row>
-    <row r="3">
-      <c r="A3" s="4">
-        <v>73.0</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:3" ht="39" customHeight="1">
+      <c r="A3" s="1">
+        <v>73</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="C3" s="5"/>
     </row>
-    <row r="4">
-      <c r="A4" s="4">
-        <v>74.0</v>
-      </c>
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:3" ht="34.5" customHeight="1">
+      <c r="A4" s="1">
+        <v>74</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="C4" s="5"/>
     </row>
-    <row r="5">
-      <c r="A5" s="4">
-        <v>75.0</v>
-      </c>
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:3" ht="43.5" customHeight="1">
+      <c r="A5" s="1">
+        <v>75</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="C5" s="5"/>
     </row>
-    <row r="6">
-      <c r="A6" s="4">
-        <v>76.0</v>
-      </c>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:3" ht="47.25" customHeight="1">
+      <c r="A6" s="1">
+        <v>76</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="C6" s="5"/>
     </row>
-    <row r="7">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7" t="s">
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <mergeCells count="6">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>